--- a/database/industries/siman/sesoufi/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sesoufi/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sesoufi\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sesoufi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB68F65-1668-4E86-ABEC-64C6CC3FD8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447573D-0BCF-40C7-AFD6-25897FA0783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -663,16 +678,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I145"/>
+  <dimension ref="B1:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,8 +696,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,8 +713,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -705,8 +730,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -715,8 +745,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,8 +762,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -739,8 +779,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -749,8 +794,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -771,8 +821,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -781,10 +846,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -793,296 +863,481 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11">
         <v>3621</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>515790</v>
+      </c>
+      <c r="F12" s="13">
+        <v>405773</v>
+      </c>
+      <c r="G12" s="13">
+        <v>335026</v>
+      </c>
+      <c r="H12" s="13">
+        <v>464565</v>
+      </c>
+      <c r="I12" s="13">
+        <v>426165</v>
+      </c>
+      <c r="J12" s="13">
         <v>516166</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>328955</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>202595</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>173059</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>161706</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="13">
         <v>12643</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>51963</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>170685</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>128381</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>96657</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>1521</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>2151</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>49365</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>48305</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>64237</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>23</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>27744</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>69558</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>118363</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>31313</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>24286</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>4728</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
+        <v>515790</v>
+      </c>
+      <c r="F22" s="15">
+        <v>405773</v>
+      </c>
+      <c r="G22" s="15">
+        <v>335026</v>
+      </c>
+      <c r="H22" s="15">
+        <v>464565</v>
+      </c>
+      <c r="I22" s="15">
+        <v>426165</v>
+      </c>
+      <c r="J22" s="15">
         <v>516166</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>328955</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>483246</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>458383</v>
       </c>
-      <c r="I22" s="15">
+      <c r="N22" s="15">
         <v>501375</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1091,152 +1346,247 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
+        <v>21867</v>
+      </c>
+      <c r="F24" s="11">
+        <v>8909</v>
+      </c>
+      <c r="G24" s="11">
+        <v>10342</v>
+      </c>
+      <c r="H24" s="11">
+        <v>5284</v>
+      </c>
+      <c r="I24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="11">
         <v>990</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
+        <v>34671</v>
+      </c>
+      <c r="F25" s="13">
+        <v>7771</v>
+      </c>
+      <c r="G25" s="13">
+        <v>12331</v>
+      </c>
+      <c r="H25" s="13">
+        <v>5454</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
         <v>2136</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>2440</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11">
+        <v>18</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="11">
         <v>2986</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>4462</v>
       </c>
-      <c r="I26" s="11">
+      <c r="N26" s="11">
         <v>11251</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11">
+        <v>18</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="11">
         <v>323</v>
       </c>
-      <c r="H28" s="11">
+      <c r="M28" s="11">
         <v>197</v>
       </c>
-      <c r="I28" s="11">
+      <c r="N28" s="11">
         <v>1972</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>56538</v>
+      </c>
+      <c r="F29" s="15">
+        <v>16680</v>
+      </c>
+      <c r="G29" s="15">
+        <v>22673</v>
+      </c>
+      <c r="H29" s="15">
+        <v>10738</v>
+      </c>
+      <c r="I29" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="15">
         <v>3126</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>2440</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>3309</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>4659</v>
       </c>
-      <c r="I29" s="15">
+      <c r="N29" s="15">
         <v>13223</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1245,10 +1595,15 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -1267,40 +1622,70 @@
       <c r="I31" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>13</v>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19">
         <v>0</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>13</v>
+      <c r="F33" s="19">
+        <v>0</v>
       </c>
       <c r="G33" s="19">
         <v>0</v>
@@ -1311,30 +1696,60 @@
       <c r="I33" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="19">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0</v>
+      </c>
+      <c r="N33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
+        <v>572328</v>
+      </c>
+      <c r="F34" s="15">
+        <v>422453</v>
+      </c>
+      <c r="G34" s="15">
+        <v>357699</v>
+      </c>
+      <c r="H34" s="15">
+        <v>475303</v>
+      </c>
+      <c r="I34" s="15">
+        <v>426164</v>
+      </c>
+      <c r="J34" s="15">
         <v>519292</v>
       </c>
-      <c r="F34" s="15">
+      <c r="K34" s="15">
         <v>331395</v>
       </c>
-      <c r="G34" s="15">
+      <c r="L34" s="15">
         <v>486555</v>
       </c>
-      <c r="H34" s="15">
+      <c r="M34" s="15">
         <v>463042</v>
       </c>
-      <c r="I34" s="15">
+      <c r="N34" s="15">
         <v>514598</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1343,8 +1758,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1353,8 +1773,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1363,10 +1788,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1385,8 +1815,23 @@
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1395,10 +1840,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1407,296 +1857,481 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
         <v>0</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>13</v>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
       </c>
       <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="11">
         <v>1620</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>1249225</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1033506</v>
+      </c>
+      <c r="G42" s="13">
+        <v>898745</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1620456</v>
+      </c>
+      <c r="I42" s="13">
+        <v>2482433</v>
+      </c>
+      <c r="J42" s="13">
         <v>2328932</v>
       </c>
-      <c r="F42" s="13">
+      <c r="K42" s="13">
         <v>1635216</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="11">
+        <v>18</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="11">
         <v>1433561</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>1356811</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>1175569</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="13">
+        <v>18</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="13">
         <v>82874</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>324020</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="11">
+        <v>18</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="11">
         <v>965456</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>923113</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>654192</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="13">
+        <v>18</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="13">
         <v>5247</v>
       </c>
-      <c r="H46" s="13">
+      <c r="M46" s="13">
         <v>7423</v>
       </c>
-      <c r="I46" s="13">
+      <c r="N46" s="13">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="13">
+        <v>18</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="13">
         <v>319253</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>325543</v>
       </c>
-      <c r="I48" s="13">
+      <c r="N48" s="13">
         <v>377973</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="11">
+        <v>18</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="11">
         <v>78</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="13">
+        <v>18</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="13">
         <v>146938</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>406499</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>650095</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="11">
+        <v>18</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11">
         <v>183364</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>160322</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>28240</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
+        <v>1249225</v>
+      </c>
+      <c r="F52" s="15">
+        <v>1033506</v>
+      </c>
+      <c r="G52" s="15">
+        <v>898745</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1620456</v>
+      </c>
+      <c r="I52" s="15">
+        <v>2482433</v>
+      </c>
+      <c r="J52" s="15">
         <v>2328932</v>
       </c>
-      <c r="F52" s="15">
+      <c r="K52" s="15">
         <v>1635216</v>
       </c>
-      <c r="G52" s="15">
+      <c r="L52" s="15">
         <v>3053897</v>
       </c>
-      <c r="H52" s="15">
+      <c r="M52" s="15">
         <v>3262585</v>
       </c>
-      <c r="I52" s="15">
+      <c r="N52" s="15">
         <v>3212509</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -1705,152 +2340,247 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>40998</v>
+      </c>
+      <c r="F54" s="11">
+        <v>21848</v>
+      </c>
+      <c r="G54" s="11">
+        <v>28866</v>
+      </c>
+      <c r="H54" s="11">
+        <v>21123</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
         <v>6070</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
+        <v>120279</v>
+      </c>
+      <c r="F55" s="13">
+        <v>33971</v>
+      </c>
+      <c r="G55" s="13">
+        <v>58512</v>
+      </c>
+      <c r="H55" s="13">
+        <v>31823</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
         <v>18337</v>
       </c>
-      <c r="F55" s="13">
+      <c r="K55" s="13">
         <v>21670</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11">
+        <v>18</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="11">
         <v>28101</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>43223</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>91287</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0</v>
-      </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="13">
+        <v>0</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="11">
+        <v>18</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="11">
         <v>2947</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>1766</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>14334</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>161277</v>
+      </c>
+      <c r="F59" s="15">
+        <v>55819</v>
+      </c>
+      <c r="G59" s="15">
+        <v>87378</v>
+      </c>
+      <c r="H59" s="15">
+        <v>52946</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0</v>
+      </c>
+      <c r="J59" s="15">
         <v>24407</v>
       </c>
-      <c r="F59" s="15">
+      <c r="K59" s="15">
         <v>21670</v>
       </c>
-      <c r="G59" s="15">
+      <c r="L59" s="15">
         <v>31048</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>44989</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>105621</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -1859,10 +2589,15 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -1881,78 +2616,138 @@
       <c r="I61" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="19">
+        <v>0</v>
+      </c>
+      <c r="K61" s="19">
+        <v>0</v>
+      </c>
+      <c r="L61" s="19">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19">
+        <v>0</v>
+      </c>
+      <c r="N61" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>13</v>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15">
+        <v>0</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19">
-        <v>0</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>13</v>
+        <v>-26183</v>
+      </c>
+      <c r="F63" s="19">
+        <v>26312</v>
       </c>
       <c r="G63" s="19">
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="H63" s="19">
         <v>0</v>
       </c>
       <c r="I63" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-7712</v>
+      </c>
+      <c r="J63" s="19">
+        <v>0</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="19">
+        <v>0</v>
+      </c>
+      <c r="M63" s="19">
+        <v>0</v>
+      </c>
+      <c r="N63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
+        <v>1384319</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1115637</v>
+      </c>
+      <c r="G64" s="15">
+        <v>986047</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1673402</v>
+      </c>
+      <c r="I64" s="15">
+        <v>2474721</v>
+      </c>
+      <c r="J64" s="15">
         <v>2353339</v>
       </c>
-      <c r="F64" s="15">
+      <c r="K64" s="15">
         <v>1656886</v>
       </c>
-      <c r="G64" s="15">
+      <c r="L64" s="15">
         <v>3084945</v>
       </c>
-      <c r="H64" s="15">
+      <c r="M64" s="15">
         <v>3307574</v>
       </c>
-      <c r="I64" s="15">
+      <c r="N64" s="15">
         <v>3318130</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1961,8 +2756,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1971,8 +2771,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1981,10 +2786,15 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2003,8 +2813,23 @@
       <c r="I68" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2013,10 +2838,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2025,274 +2855,444 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="11">
+        <v>18</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11">
         <v>447390</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>2421964</v>
+      </c>
+      <c r="F72" s="13">
+        <v>2547005</v>
+      </c>
+      <c r="G72" s="13">
+        <v>2682613</v>
+      </c>
+      <c r="H72" s="13">
+        <v>3488115</v>
+      </c>
+      <c r="I72" s="13">
+        <v>4606210</v>
+      </c>
+      <c r="J72" s="13">
         <v>4571639</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>4647310</v>
       </c>
-      <c r="G72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="11">
+        <v>18</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="11">
         <v>7075994</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>7840164</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>7269792</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="13">
+        <v>18</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="13">
         <v>6554932</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>6235591</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="11">
+        <v>18</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11">
         <v>5656361</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>7190418</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>6768180</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="13">
+        <v>18</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13">
         <v>3449704</v>
       </c>
-      <c r="H76" s="13">
+      <c r="M76" s="13">
         <v>3450953</v>
       </c>
-      <c r="I76" s="13">
+      <c r="N76" s="13">
         <v>8000000</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13">
+        <v>18</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="13">
         <v>6467193</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>6739323</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>5884039</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="11">
+        <v>18</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="11">
         <v>3391304</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="13">
+        <v>18</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="13">
         <v>5296208</v>
       </c>
-      <c r="H80" s="13">
+      <c r="M80" s="13">
         <v>5844029</v>
       </c>
-      <c r="I80" s="13">
+      <c r="N80" s="13">
         <v>5492384</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="11">
+        <v>18</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="11">
         <v>5855843</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>6601416</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>5972927</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2301,128 +3301,208 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>1874880</v>
+      </c>
+      <c r="F83" s="11">
+        <v>2452352</v>
+      </c>
+      <c r="G83" s="11">
+        <v>2791143</v>
+      </c>
+      <c r="H83" s="11">
+        <v>3997540</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="11">
         <v>6131313</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>4337365</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
+        <v>3469153</v>
+      </c>
+      <c r="F84" s="13">
+        <v>4371509</v>
+      </c>
+      <c r="G84" s="13">
+        <v>4745114</v>
+      </c>
+      <c r="H84" s="13">
+        <v>5834800</v>
+      </c>
+      <c r="I84" s="13">
+        <v>5834800</v>
+      </c>
+      <c r="J84" s="13">
         <v>6608696</v>
       </c>
-      <c r="F84" s="13">
+      <c r="K84" s="13">
         <v>7161515</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="11">
+        <v>18</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="11">
         <v>9410918</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>9686912</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>8113679</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="11">
+        <v>18</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="11">
         <v>9123839</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>8964467</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>7268763</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2431,8 +3511,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2441,8 +3526,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2451,10 +3541,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2473,8 +3568,23 @@
       <c r="I91" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2483,10 +3593,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2495,13 +3610,18 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
@@ -2510,281 +3630,461 @@
       <c r="F94" s="11">
         <v>0</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>13</v>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
       </c>
       <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11">
         <v>-1620</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>-735934</v>
+      </c>
+      <c r="F95" s="13">
+        <v>-718707</v>
+      </c>
+      <c r="G95" s="13">
+        <v>-744863</v>
+      </c>
+      <c r="H95" s="13">
+        <v>-982539</v>
+      </c>
+      <c r="I95" s="13">
+        <v>-1178193</v>
+      </c>
+      <c r="J95" s="13">
         <v>-1343143</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>-1309183</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="11">
+        <v>18</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="11">
         <v>-735902</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>-715340</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>-715932</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="13">
+        <v>18</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="13">
         <v>-48843</v>
       </c>
-      <c r="I97" s="13">
+      <c r="N97" s="13">
         <v>-211715</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="11">
+        <v>18</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11">
         <v>-495572</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>-450618</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>-363356</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="13">
+        <v>18</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="13">
         <v>-4416</v>
       </c>
-      <c r="H99" s="13">
+      <c r="M99" s="13">
         <v>-7202</v>
       </c>
-      <c r="I99" s="13">
+      <c r="N99" s="13">
         <v>-865</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11">
+        <v>0</v>
+      </c>
+      <c r="N100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="13">
+        <v>18</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="13">
         <v>-179315</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>-198008</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>-275642</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="11">
+        <v>18</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="11">
         <v>-65</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>-8</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="13">
+        <v>18</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="13">
         <v>-80555</v>
       </c>
-      <c r="H103" s="13">
+      <c r="M103" s="13">
         <v>-227291</v>
       </c>
-      <c r="I103" s="13">
+      <c r="N103" s="13">
         <v>-405844</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="11">
+        <v>18</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="11">
         <v>-113750</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>-101040</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>-28510</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
+        <v>-735934</v>
+      </c>
+      <c r="F105" s="15">
+        <v>-718707</v>
+      </c>
+      <c r="G105" s="15">
+        <v>-744863</v>
+      </c>
+      <c r="H105" s="15">
+        <v>-982539</v>
+      </c>
+      <c r="I105" s="15">
+        <v>-1178193</v>
+      </c>
+      <c r="J105" s="15">
         <v>-1343143</v>
       </c>
-      <c r="F105" s="15">
+      <c r="K105" s="15">
         <v>-1309183</v>
       </c>
-      <c r="G105" s="15">
+      <c r="L105" s="15">
         <v>-1609575</v>
       </c>
-      <c r="H105" s="15">
+      <c r="M105" s="15">
         <v>-1748350</v>
       </c>
-      <c r="I105" s="15">
+      <c r="N105" s="15">
         <v>-2003485</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -2793,152 +4093,247 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>-19811</v>
+      </c>
+      <c r="F107" s="11">
+        <v>-9041</v>
+      </c>
+      <c r="G107" s="11">
+        <v>-15765</v>
+      </c>
+      <c r="H107" s="11">
+        <v>-6513</v>
+      </c>
+      <c r="I107" s="11">
+        <v>-1908</v>
+      </c>
+      <c r="J107" s="11">
         <v>-18773</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>15712</v>
       </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
-      <c r="H107" s="11">
-        <v>0</v>
-      </c>
-      <c r="I107" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L107" s="11">
+        <v>0</v>
+      </c>
+      <c r="M107" s="11">
+        <v>0</v>
+      </c>
+      <c r="N107" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
+        <v>-47667</v>
+      </c>
+      <c r="F108" s="13">
+        <v>-57091</v>
+      </c>
+      <c r="G108" s="13">
+        <v>18274</v>
+      </c>
+      <c r="H108" s="13">
+        <v>-11364</v>
+      </c>
+      <c r="I108" s="13">
+        <v>-1918</v>
+      </c>
+      <c r="J108" s="13">
         <v>-5621</v>
       </c>
-      <c r="F108" s="13">
+      <c r="K108" s="13">
         <v>-8214</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="11">
+        <v>18</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11">
         <v>-10848</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>-15779</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>-48791</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="13">
-        <v>0</v>
-      </c>
-      <c r="H110" s="13">
-        <v>0</v>
-      </c>
-      <c r="I110" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="13">
+        <v>0</v>
+      </c>
+      <c r="M110" s="13">
+        <v>0</v>
+      </c>
+      <c r="N110" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="11">
+        <v>18</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="11">
         <v>-938</v>
       </c>
-      <c r="H111" s="11">
+      <c r="M111" s="11">
         <v>-560</v>
       </c>
-      <c r="I111" s="11">
+      <c r="N111" s="11">
         <v>-6746</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
+        <v>-67478</v>
+      </c>
+      <c r="F112" s="15">
+        <v>-66132</v>
+      </c>
+      <c r="G112" s="15">
+        <v>2509</v>
+      </c>
+      <c r="H112" s="15">
+        <v>-17877</v>
+      </c>
+      <c r="I112" s="15">
+        <v>-3826</v>
+      </c>
+      <c r="J112" s="15">
         <v>-24394</v>
       </c>
-      <c r="F112" s="15">
+      <c r="K112" s="15">
         <v>7498</v>
       </c>
-      <c r="G112" s="15">
+      <c r="L112" s="15">
         <v>-11786</v>
       </c>
-      <c r="H112" s="15">
+      <c r="M112" s="15">
         <v>-16339</v>
       </c>
-      <c r="I112" s="15">
+      <c r="N112" s="15">
         <v>-55537</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -2947,10 +4342,15 @@
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -2969,37 +4369,67 @@
       <c r="I114" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="19">
+        <v>0</v>
+      </c>
+      <c r="K114" s="19">
+        <v>0</v>
+      </c>
+      <c r="L114" s="19">
+        <v>0</v>
+      </c>
+      <c r="M114" s="19">
+        <v>0</v>
+      </c>
+      <c r="N114" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D115" s="15"/>
-      <c r="E115" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>13</v>
+      <c r="E115" s="15">
+        <v>0</v>
+      </c>
+      <c r="F115" s="15">
+        <v>0</v>
+      </c>
+      <c r="G115" s="15">
+        <v>0</v>
+      </c>
+      <c r="H115" s="15">
+        <v>0</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J115" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N115" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19">
@@ -3017,30 +4447,60 @@
       <c r="I116" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="19">
+        <v>0</v>
+      </c>
+      <c r="K116" s="19">
+        <v>0</v>
+      </c>
+      <c r="L116" s="19">
+        <v>0</v>
+      </c>
+      <c r="M116" s="19">
+        <v>0</v>
+      </c>
+      <c r="N116" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
+        <v>-803412</v>
+      </c>
+      <c r="F117" s="15">
+        <v>-784839</v>
+      </c>
+      <c r="G117" s="15">
+        <v>-742354</v>
+      </c>
+      <c r="H117" s="15">
+        <v>-1000416</v>
+      </c>
+      <c r="I117" s="15">
+        <v>-1182019</v>
+      </c>
+      <c r="J117" s="15">
         <v>-1367537</v>
       </c>
-      <c r="F117" s="15">
+      <c r="K117" s="15">
         <v>-1301685</v>
       </c>
-      <c r="G117" s="15">
+      <c r="L117" s="15">
         <v>-1621361</v>
       </c>
-      <c r="H117" s="15">
+      <c r="M117" s="15">
         <v>-1764689</v>
       </c>
-      <c r="I117" s="15">
+      <c r="N117" s="15">
         <v>-2059022</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3049,8 +4509,13 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3059,8 +4524,13 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3069,10 +4539,15 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3091,8 +4566,23 @@
       <c r="I121" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3101,10 +4591,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -3113,13 +4608,18 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
@@ -3128,281 +4628,461 @@
       <c r="F124" s="11">
         <v>0</v>
       </c>
-      <c r="G124" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>13</v>
+      <c r="G124" s="11">
+        <v>0</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
       </c>
       <c r="I124" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="11">
+        <v>0</v>
+      </c>
+      <c r="K124" s="11">
+        <v>0</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
+        <v>513291</v>
+      </c>
+      <c r="F125" s="13">
+        <v>314799</v>
+      </c>
+      <c r="G125" s="13">
+        <v>181590</v>
+      </c>
+      <c r="H125" s="13">
+        <v>637917</v>
+      </c>
+      <c r="I125" s="13">
+        <v>1304240</v>
+      </c>
+      <c r="J125" s="13">
         <v>985789</v>
       </c>
-      <c r="F125" s="13">
+      <c r="K125" s="13">
         <v>326033</v>
       </c>
-      <c r="G125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N125" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="11">
+        <v>18</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="11">
         <v>697659</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>641471</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>459637</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="13">
+        <v>18</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="13">
         <v>34031</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>112305</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="11">
+        <v>18</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" s="11">
         <v>469884</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>472495</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>290836</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="13">
+        <v>18</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129" s="13">
         <v>831</v>
       </c>
-      <c r="H129" s="13">
+      <c r="M129" s="13">
         <v>221</v>
       </c>
-      <c r="I129" s="13">
+      <c r="N129" s="13">
         <v>-65</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="11">
-        <v>0</v>
-      </c>
-      <c r="H130" s="11">
-        <v>0</v>
-      </c>
-      <c r="I130" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="11">
+        <v>0</v>
+      </c>
+      <c r="M130" s="11">
+        <v>0</v>
+      </c>
+      <c r="N130" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="13">
+        <v>18</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" s="13">
         <v>139938</v>
       </c>
-      <c r="H131" s="13">
+      <c r="M131" s="13">
         <v>127535</v>
       </c>
-      <c r="I131" s="13">
+      <c r="N131" s="13">
         <v>102331</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="11">
         <v>13</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="11">
-        <v>13</v>
-      </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>-8</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" s="13">
+        <v>18</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" s="13">
         <v>66383</v>
       </c>
-      <c r="H133" s="13">
+      <c r="M133" s="13">
         <v>179208</v>
       </c>
-      <c r="I133" s="13">
+      <c r="N133" s="13">
         <v>244251</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="11">
+        <v>18</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="11">
         <v>69614</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>59282</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>-270</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>513291</v>
+      </c>
+      <c r="F135" s="15">
+        <v>314799</v>
+      </c>
+      <c r="G135" s="15">
+        <v>181590</v>
+      </c>
+      <c r="H135" s="15">
+        <v>637917</v>
+      </c>
+      <c r="I135" s="15">
+        <v>1304240</v>
+      </c>
+      <c r="J135" s="15">
         <v>985789</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>326033</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>1444322</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>1514235</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>1209024</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -3411,152 +5091,247 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
+        <v>21187</v>
+      </c>
+      <c r="F137" s="11">
+        <v>12807</v>
+      </c>
+      <c r="G137" s="11">
+        <v>13101</v>
+      </c>
+      <c r="H137" s="11">
+        <v>14610</v>
+      </c>
+      <c r="I137" s="11">
+        <v>-1907</v>
+      </c>
+      <c r="J137" s="11">
         <v>-12703</v>
       </c>
-      <c r="F137" s="11">
+      <c r="K137" s="11">
         <v>15774</v>
       </c>
-      <c r="G137" s="11">
-        <v>0</v>
-      </c>
-      <c r="H137" s="11">
-        <v>0</v>
-      </c>
-      <c r="I137" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L137" s="11">
+        <v>0</v>
+      </c>
+      <c r="M137" s="11">
+        <v>0</v>
+      </c>
+      <c r="N137" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13">
+        <v>72612</v>
+      </c>
+      <c r="F138" s="13">
+        <v>-23119</v>
+      </c>
+      <c r="G138" s="13">
+        <v>76786</v>
+      </c>
+      <c r="H138" s="13">
+        <v>20459</v>
+      </c>
+      <c r="I138" s="13">
+        <v>-1918</v>
+      </c>
+      <c r="J138" s="13">
         <v>12716</v>
       </c>
-      <c r="F138" s="13">
+      <c r="K138" s="13">
         <v>13456</v>
       </c>
-      <c r="G138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N138" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="11">
+        <v>18</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" s="11">
         <v>17253</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>27444</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>42496</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="13">
-        <v>0</v>
-      </c>
-      <c r="H140" s="13">
-        <v>0</v>
-      </c>
-      <c r="I140" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" s="13">
+        <v>0</v>
+      </c>
+      <c r="M140" s="13">
+        <v>0</v>
+      </c>
+      <c r="N140" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="11">
+        <v>18</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L141" s="11">
         <v>2009</v>
       </c>
-      <c r="H141" s="11">
+      <c r="M141" s="11">
         <v>1206</v>
       </c>
-      <c r="I141" s="11">
+      <c r="N141" s="11">
         <v>7588</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15">
+        <v>93799</v>
+      </c>
+      <c r="F142" s="15">
+        <v>-10312</v>
+      </c>
+      <c r="G142" s="15">
+        <v>89887</v>
+      </c>
+      <c r="H142" s="15">
+        <v>35069</v>
+      </c>
+      <c r="I142" s="15">
+        <v>-3825</v>
+      </c>
+      <c r="J142" s="15">
         <v>13</v>
       </c>
-      <c r="F142" s="15">
+      <c r="K142" s="15">
         <v>29230</v>
       </c>
-      <c r="G142" s="15">
+      <c r="L142" s="15">
         <v>19262</v>
       </c>
-      <c r="H142" s="15">
+      <c r="M142" s="15">
         <v>28650</v>
       </c>
-      <c r="I142" s="15">
+      <c r="N142" s="15">
         <v>50084</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -3565,10 +5340,15 @@
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
@@ -3587,26 +5367,56 @@
       <c r="I144" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="19">
+        <v>0</v>
+      </c>
+      <c r="K144" s="19">
+        <v>0</v>
+      </c>
+      <c r="L144" s="19">
+        <v>0</v>
+      </c>
+      <c r="M144" s="19">
+        <v>0</v>
+      </c>
+      <c r="N144" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15">
+        <v>607090</v>
+      </c>
+      <c r="F145" s="15">
+        <v>304487</v>
+      </c>
+      <c r="G145" s="15">
+        <v>271477</v>
+      </c>
+      <c r="H145" s="15">
+        <v>672986</v>
+      </c>
+      <c r="I145" s="15">
+        <v>1300415</v>
+      </c>
+      <c r="J145" s="15">
         <v>985802</v>
       </c>
-      <c r="F145" s="15">
+      <c r="K145" s="15">
         <v>355263</v>
       </c>
-      <c r="G145" s="15">
+      <c r="L145" s="15">
         <v>1463584</v>
       </c>
-      <c r="H145" s="15">
+      <c r="M145" s="15">
         <v>1542885</v>
       </c>
-      <c r="I145" s="15">
+      <c r="N145" s="15">
         <v>1259108</v>
       </c>
     </row>

--- a/database/industries/siman/sesoufi/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sesoufi/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sesoufi\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sesoufi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447573D-0BCF-40C7-AFD6-25897FA0783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8611598E-A9F2-4171-9366-E947BBEA56D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -682,12 +682,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -702,7 +702,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -800,7 +800,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -852,7 +852,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -892,8 +892,8 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>18</v>
@@ -901,14 +901,14 @@
       <c r="L11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>18</v>
+      <c r="M11" s="11">
+        <v>3621</v>
       </c>
       <c r="N11" s="11">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -917,26 +917,26 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>515790</v>
+        <v>405773</v>
       </c>
       <c r="F12" s="13">
-        <v>405773</v>
+        <v>335026</v>
       </c>
       <c r="G12" s="13">
-        <v>335026</v>
+        <v>464565</v>
       </c>
       <c r="H12" s="13">
-        <v>464565</v>
+        <v>426165</v>
       </c>
       <c r="I12" s="13">
-        <v>426165</v>
+        <v>516166</v>
       </c>
       <c r="J12" s="13">
-        <v>516166</v>
-      </c>
-      <c r="K12" s="13">
         <v>328955</v>
       </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L12" s="13" t="s">
         <v>18</v>
       </c>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -973,20 +973,20 @@
       <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="K13" s="11">
+        <v>202595</v>
       </c>
       <c r="L13" s="11">
-        <v>202595</v>
+        <v>173059</v>
       </c>
       <c r="M13" s="11">
-        <v>173059</v>
+        <v>161706</v>
       </c>
       <c r="N13" s="11">
-        <v>161706</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>106307</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1015,17 +1015,17 @@
       <c r="K14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>18</v>
+      <c r="L14" s="13">
+        <v>12643</v>
       </c>
       <c r="M14" s="13">
-        <v>12643</v>
+        <v>51963</v>
       </c>
       <c r="N14" s="13">
-        <v>51963</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74517</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1051,20 +1051,20 @@
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="K15" s="11">
+        <v>170685</v>
       </c>
       <c r="L15" s="11">
-        <v>170685</v>
+        <v>128381</v>
       </c>
       <c r="M15" s="11">
-        <v>128381</v>
+        <v>96657</v>
       </c>
       <c r="N15" s="11">
-        <v>96657</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1090,20 +1090,20 @@
       <c r="J16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="K16" s="13">
+        <v>1521</v>
       </c>
       <c r="L16" s="13">
-        <v>1521</v>
+        <v>2151</v>
       </c>
       <c r="M16" s="13">
-        <v>2151</v>
+        <v>100</v>
       </c>
       <c r="N16" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1129,8 +1129,8 @@
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>0</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1168,20 +1168,20 @@
       <c r="J18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="K18" s="13">
+        <v>49365</v>
       </c>
       <c r="L18" s="13">
-        <v>49365</v>
+        <v>48305</v>
       </c>
       <c r="M18" s="13">
-        <v>48305</v>
+        <v>64237</v>
       </c>
       <c r="N18" s="13">
-        <v>64237</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30309</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1207,11 +1207,11 @@
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>23</v>
       </c>
       <c r="L19" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M19" s="11">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1246,20 +1246,20 @@
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>27744</v>
       </c>
       <c r="L20" s="13">
-        <v>27744</v>
+        <v>69558</v>
       </c>
       <c r="M20" s="13">
-        <v>69558</v>
+        <v>118363</v>
       </c>
       <c r="N20" s="13">
-        <v>118363</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>77278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1285,57 +1285,57 @@
       <c r="J21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
+      <c r="K21" s="11">
+        <v>31313</v>
       </c>
       <c r="L21" s="11">
-        <v>31313</v>
+        <v>24286</v>
       </c>
       <c r="M21" s="11">
-        <v>24286</v>
+        <v>4728</v>
       </c>
       <c r="N21" s="11">
-        <v>4728</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
-        <v>515790</v>
+        <v>405773</v>
       </c>
       <c r="F22" s="15">
-        <v>405773</v>
+        <v>335026</v>
       </c>
       <c r="G22" s="15">
-        <v>335026</v>
+        <v>464565</v>
       </c>
       <c r="H22" s="15">
-        <v>464565</v>
+        <v>426165</v>
       </c>
       <c r="I22" s="15">
-        <v>426165</v>
+        <v>516166</v>
       </c>
       <c r="J22" s="15">
-        <v>516166</v>
+        <v>328955</v>
       </c>
       <c r="K22" s="15">
-        <v>328955</v>
+        <v>483246</v>
       </c>
       <c r="L22" s="15">
-        <v>483246</v>
+        <v>458383</v>
       </c>
       <c r="M22" s="15">
-        <v>458383</v>
+        <v>501375</v>
       </c>
       <c r="N22" s="15">
-        <v>501375</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>358175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1361,25 +1361,25 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>21867</v>
+        <v>8909</v>
       </c>
       <c r="F24" s="11">
-        <v>8909</v>
+        <v>10342</v>
       </c>
       <c r="G24" s="11">
-        <v>10342</v>
+        <v>5284</v>
       </c>
       <c r="H24" s="11">
-        <v>5284</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="11">
-        <v>-1</v>
-      </c>
-      <c r="J24" s="11">
         <v>990</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>18</v>
+      <c r="J24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
       </c>
       <c r="L24" s="11">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
@@ -1400,26 +1400,26 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>34671</v>
+        <v>7771</v>
       </c>
       <c r="F25" s="13">
-        <v>7771</v>
+        <v>12331</v>
       </c>
       <c r="G25" s="13">
-        <v>12331</v>
+        <v>5454</v>
       </c>
       <c r="H25" s="13">
-        <v>5454</v>
+        <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="J25" s="13">
-        <v>2136</v>
-      </c>
-      <c r="K25" s="13">
         <v>2440</v>
       </c>
+      <c r="K25" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L25" s="13" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>21</v>
       </c>
@@ -1456,20 +1456,20 @@
       <c r="J26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>18</v>
+      <c r="K26" s="11">
+        <v>2986</v>
       </c>
       <c r="L26" s="11">
-        <v>2986</v>
+        <v>4462</v>
       </c>
       <c r="M26" s="11">
-        <v>4462</v>
+        <v>11251</v>
       </c>
       <c r="N26" s="11">
-        <v>11251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
@@ -1495,8 +1495,8 @@
       <c r="J27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>18</v>
+      <c r="K27" s="13">
+        <v>0</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
@@ -1534,57 +1534,57 @@
       <c r="J28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>18</v>
+      <c r="K28" s="11">
+        <v>323</v>
       </c>
       <c r="L28" s="11">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="M28" s="11">
-        <v>197</v>
+        <v>1972</v>
       </c>
       <c r="N28" s="11">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>56538</v>
+        <v>16680</v>
       </c>
       <c r="F29" s="15">
-        <v>16680</v>
+        <v>22673</v>
       </c>
       <c r="G29" s="15">
-        <v>22673</v>
+        <v>10738</v>
       </c>
       <c r="H29" s="15">
-        <v>10738</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="15">
-        <v>-1</v>
+        <v>3126</v>
       </c>
       <c r="J29" s="15">
-        <v>3126</v>
+        <v>2440</v>
       </c>
       <c r="K29" s="15">
-        <v>2440</v>
+        <v>3309</v>
       </c>
       <c r="L29" s="15">
-        <v>3309</v>
+        <v>4659</v>
       </c>
       <c r="M29" s="15">
-        <v>4659</v>
+        <v>13223</v>
       </c>
       <c r="N29" s="15">
-        <v>13223</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
@@ -1653,8 +1653,8 @@
       <c r="G32" s="15">
         <v>0</v>
       </c>
-      <c r="H32" s="15">
-        <v>0</v>
+      <c r="H32" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>18</v>
@@ -1675,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>35</v>
       </c>
@@ -1696,11 +1696,11 @@
       <c r="I33" s="19">
         <v>0</v>
       </c>
-      <c r="J33" s="19">
-        <v>0</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>18</v>
+      <c r="J33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0</v>
       </c>
       <c r="L33" s="19">
         <v>0</v>
@@ -1712,44 +1712,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>572328</v>
+        <v>422453</v>
       </c>
       <c r="F34" s="15">
-        <v>422453</v>
+        <v>357699</v>
       </c>
       <c r="G34" s="15">
-        <v>357699</v>
+        <v>475303</v>
       </c>
       <c r="H34" s="15">
-        <v>475303</v>
+        <v>426164</v>
       </c>
       <c r="I34" s="15">
-        <v>426164</v>
+        <v>519292</v>
       </c>
       <c r="J34" s="15">
-        <v>519292</v>
+        <v>331395</v>
       </c>
       <c r="K34" s="15">
-        <v>331395</v>
+        <v>486555</v>
       </c>
       <c r="L34" s="15">
-        <v>486555</v>
+        <v>463042</v>
       </c>
       <c r="M34" s="15">
-        <v>463042</v>
+        <v>514598</v>
       </c>
       <c r="N34" s="15">
-        <v>514598</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>360786</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1764,7 +1764,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1794,7 +1794,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1846,7 +1846,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
@@ -1886,8 +1886,8 @@
       <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="11">
-        <v>0</v>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>18</v>
@@ -1895,14 +1895,14 @@
       <c r="L41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="11" t="s">
-        <v>18</v>
+      <c r="M41" s="11">
+        <v>1620</v>
       </c>
       <c r="N41" s="11">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>19</v>
       </c>
@@ -1911,26 +1911,26 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>1249225</v>
+        <v>1033506</v>
       </c>
       <c r="F42" s="13">
-        <v>1033506</v>
+        <v>898745</v>
       </c>
       <c r="G42" s="13">
-        <v>898745</v>
+        <v>1620456</v>
       </c>
       <c r="H42" s="13">
-        <v>1620456</v>
+        <v>2482433</v>
       </c>
       <c r="I42" s="13">
-        <v>2482433</v>
+        <v>2328932</v>
       </c>
       <c r="J42" s="13">
-        <v>2328932</v>
-      </c>
-      <c r="K42" s="13">
         <v>1635216</v>
       </c>
+      <c r="K42" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L42" s="13" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>20</v>
       </c>
@@ -1967,20 +1967,20 @@
       <c r="J43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>18</v>
+      <c r="K43" s="11">
+        <v>1433561</v>
       </c>
       <c r="L43" s="11">
-        <v>1433561</v>
+        <v>1356811</v>
       </c>
       <c r="M43" s="11">
-        <v>1356811</v>
+        <v>1175569</v>
       </c>
       <c r="N43" s="11">
-        <v>1175569</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>822104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
@@ -2009,17 +2009,17 @@
       <c r="K44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>18</v>
+      <c r="L44" s="13">
+        <v>82874</v>
       </c>
       <c r="M44" s="13">
-        <v>82874</v>
+        <v>324020</v>
       </c>
       <c r="N44" s="13">
-        <v>324020</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>477517</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
@@ -2045,20 +2045,20 @@
       <c r="J45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>18</v>
+      <c r="K45" s="11">
+        <v>965456</v>
       </c>
       <c r="L45" s="11">
-        <v>965456</v>
+        <v>923113</v>
       </c>
       <c r="M45" s="11">
-        <v>923113</v>
+        <v>654192</v>
       </c>
       <c r="N45" s="11">
-        <v>654192</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>480749</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>23</v>
       </c>
@@ -2084,20 +2084,20 @@
       <c r="J46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>18</v>
+      <c r="K46" s="13">
+        <v>5247</v>
       </c>
       <c r="L46" s="13">
-        <v>5247</v>
+        <v>7423</v>
       </c>
       <c r="M46" s="13">
-        <v>7423</v>
+        <v>800</v>
       </c>
       <c r="N46" s="13">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="J47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>18</v>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>25</v>
       </c>
@@ -2162,20 +2162,20 @@
       <c r="J48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>18</v>
+      <c r="K48" s="13">
+        <v>319253</v>
       </c>
       <c r="L48" s="13">
-        <v>319253</v>
+        <v>325543</v>
       </c>
       <c r="M48" s="13">
-        <v>325543</v>
+        <v>377973</v>
       </c>
       <c r="N48" s="13">
-        <v>377973</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>190785</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -2201,11 +2201,11 @@
       <c r="J49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>18</v>
+      <c r="K49" s="11">
+        <v>78</v>
       </c>
       <c r="L49" s="11">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M49" s="11">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>27</v>
       </c>
@@ -2240,20 +2240,20 @@
       <c r="J50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>18</v>
+      <c r="K50" s="13">
+        <v>146938</v>
       </c>
       <c r="L50" s="13">
-        <v>146938</v>
+        <v>406499</v>
       </c>
       <c r="M50" s="13">
-        <v>406499</v>
+        <v>650095</v>
       </c>
       <c r="N50" s="13">
-        <v>650095</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>431506</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
@@ -2279,57 +2279,57 @@
       <c r="J51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>18</v>
+      <c r="K51" s="11">
+        <v>183364</v>
       </c>
       <c r="L51" s="11">
-        <v>183364</v>
+        <v>160322</v>
       </c>
       <c r="M51" s="11">
-        <v>160322</v>
+        <v>28240</v>
       </c>
       <c r="N51" s="11">
-        <v>28240</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>1249225</v>
+        <v>1033506</v>
       </c>
       <c r="F52" s="15">
-        <v>1033506</v>
+        <v>898745</v>
       </c>
       <c r="G52" s="15">
-        <v>898745</v>
+        <v>1620456</v>
       </c>
       <c r="H52" s="15">
-        <v>1620456</v>
+        <v>2482433</v>
       </c>
       <c r="I52" s="15">
-        <v>2482433</v>
+        <v>2328932</v>
       </c>
       <c r="J52" s="15">
-        <v>2328932</v>
+        <v>1635216</v>
       </c>
       <c r="K52" s="15">
-        <v>1635216</v>
+        <v>3053897</v>
       </c>
       <c r="L52" s="15">
-        <v>3053897</v>
+        <v>3262585</v>
       </c>
       <c r="M52" s="15">
-        <v>3262585</v>
+        <v>3212509</v>
       </c>
       <c r="N52" s="15">
-        <v>3212509</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2412741</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>40</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>40998</v>
+        <v>21848</v>
       </c>
       <c r="F54" s="11">
-        <v>21848</v>
+        <v>28866</v>
       </c>
       <c r="G54" s="11">
-        <v>28866</v>
+        <v>21123</v>
       </c>
       <c r="H54" s="11">
-        <v>21123</v>
+        <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
         <v>6070</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>18</v>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>0</v>
@@ -2382,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>19</v>
       </c>
@@ -2394,26 +2394,26 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>120279</v>
+        <v>33971</v>
       </c>
       <c r="F55" s="13">
-        <v>33971</v>
+        <v>58512</v>
       </c>
       <c r="G55" s="13">
-        <v>58512</v>
+        <v>31823</v>
       </c>
       <c r="H55" s="13">
-        <v>31823</v>
+        <v>0</v>
       </c>
       <c r="I55" s="13">
-        <v>0</v>
+        <v>18337</v>
       </c>
       <c r="J55" s="13">
-        <v>18337</v>
-      </c>
-      <c r="K55" s="13">
         <v>21670</v>
       </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L55" s="13" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>21</v>
       </c>
@@ -2450,20 +2450,20 @@
       <c r="J56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>18</v>
+      <c r="K56" s="11">
+        <v>28101</v>
       </c>
       <c r="L56" s="11">
-        <v>28101</v>
+        <v>43223</v>
       </c>
       <c r="M56" s="11">
-        <v>43223</v>
+        <v>91287</v>
       </c>
       <c r="N56" s="11">
-        <v>91287</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15654</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
@@ -2489,8 +2489,8 @@
       <c r="J57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>18</v>
+      <c r="K57" s="13">
+        <v>0</v>
       </c>
       <c r="L57" s="13">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>27</v>
       </c>
@@ -2528,57 +2528,57 @@
       <c r="J58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>18</v>
+      <c r="K58" s="11">
+        <v>2947</v>
       </c>
       <c r="L58" s="11">
-        <v>2947</v>
+        <v>1766</v>
       </c>
       <c r="M58" s="11">
-        <v>1766</v>
+        <v>14334</v>
       </c>
       <c r="N58" s="11">
-        <v>14334</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>161277</v>
+        <v>55819</v>
       </c>
       <c r="F59" s="15">
-        <v>55819</v>
+        <v>87378</v>
       </c>
       <c r="G59" s="15">
-        <v>87378</v>
+        <v>52946</v>
       </c>
       <c r="H59" s="15">
-        <v>52946</v>
+        <v>0</v>
       </c>
       <c r="I59" s="15">
-        <v>0</v>
+        <v>24407</v>
       </c>
       <c r="J59" s="15">
-        <v>24407</v>
+        <v>21670</v>
       </c>
       <c r="K59" s="15">
-        <v>21670</v>
+        <v>31048</v>
       </c>
       <c r="L59" s="15">
-        <v>31048</v>
+        <v>44989</v>
       </c>
       <c r="M59" s="15">
-        <v>44989</v>
+        <v>105621</v>
       </c>
       <c r="N59" s="15">
-        <v>105621</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22718</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>41</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
         <v>33</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>34</v>
       </c>
@@ -2649,8 +2649,8 @@
       <c r="G62" s="15">
         <v>0</v>
       </c>
-      <c r="H62" s="15">
-        <v>0</v>
+      <c r="H62" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>18</v>
@@ -2671,7 +2671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
         <v>35</v>
       </c>
@@ -2680,25 +2680,25 @@
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19">
-        <v>-26183</v>
+        <v>26312</v>
       </c>
       <c r="F63" s="19">
-        <v>26312</v>
+        <v>-76</v>
       </c>
       <c r="G63" s="19">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="H63" s="19">
-        <v>0</v>
+        <v>-7712</v>
       </c>
       <c r="I63" s="19">
-        <v>-7712</v>
-      </c>
-      <c r="J63" s="19">
-        <v>0</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="19">
+        <v>0</v>
       </c>
       <c r="L63" s="19">
         <v>0</v>
@@ -2710,44 +2710,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>1384319</v>
+        <v>1115637</v>
       </c>
       <c r="F64" s="15">
-        <v>1115637</v>
+        <v>986047</v>
       </c>
       <c r="G64" s="15">
-        <v>986047</v>
+        <v>1673402</v>
       </c>
       <c r="H64" s="15">
-        <v>1673402</v>
+        <v>2474721</v>
       </c>
       <c r="I64" s="15">
-        <v>2474721</v>
+        <v>2353339</v>
       </c>
       <c r="J64" s="15">
-        <v>2353339</v>
+        <v>1656886</v>
       </c>
       <c r="K64" s="15">
-        <v>1656886</v>
+        <v>3084945</v>
       </c>
       <c r="L64" s="15">
-        <v>3084945</v>
+        <v>3307574</v>
       </c>
       <c r="M64" s="15">
-        <v>3307574</v>
+        <v>3318130</v>
       </c>
       <c r="N64" s="15">
-        <v>3318130</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2435459</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2762,7 +2762,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2777,7 +2777,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2792,7 +2792,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>42</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2844,7 +2844,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>43</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2893,14 +2893,14 @@
       <c r="L71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" s="11">
+      <c r="M71" s="11">
         <v>447390</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2909,26 +2909,26 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>2421964</v>
+        <v>2547005</v>
       </c>
       <c r="F72" s="13">
-        <v>2547005</v>
+        <v>2682613</v>
       </c>
       <c r="G72" s="13">
-        <v>2682613</v>
+        <v>3488115</v>
       </c>
       <c r="H72" s="13">
-        <v>3488115</v>
+        <v>4606210</v>
       </c>
       <c r="I72" s="13">
-        <v>4606210</v>
+        <v>4571639</v>
       </c>
       <c r="J72" s="13">
-        <v>4571639</v>
-      </c>
-      <c r="K72" s="13">
         <v>4647310</v>
       </c>
+      <c r="K72" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L72" s="13" t="s">
         <v>18</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -2965,20 +2965,20 @@
       <c r="J73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="11" t="s">
-        <v>18</v>
+      <c r="K73" s="11">
+        <v>7075994</v>
       </c>
       <c r="L73" s="11">
-        <v>7075994</v>
+        <v>7840164</v>
       </c>
       <c r="M73" s="11">
-        <v>7840164</v>
+        <v>7269792</v>
       </c>
       <c r="N73" s="11">
-        <v>7269792</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7733301</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>21</v>
       </c>
@@ -3007,17 +3007,17 @@
       <c r="K74" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="13" t="s">
-        <v>18</v>
+      <c r="L74" s="13">
+        <v>6554932</v>
       </c>
       <c r="M74" s="13">
-        <v>6554932</v>
+        <v>6235591</v>
       </c>
       <c r="N74" s="13">
-        <v>6235591</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6408162</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>22</v>
       </c>
@@ -3043,20 +3043,20 @@
       <c r="J75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="11" t="s">
-        <v>18</v>
+      <c r="K75" s="11">
+        <v>5656361</v>
       </c>
       <c r="L75" s="11">
-        <v>5656361</v>
+        <v>7190418</v>
       </c>
       <c r="M75" s="11">
-        <v>7190418</v>
+        <v>6768180</v>
       </c>
       <c r="N75" s="11">
-        <v>6768180</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7046213</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>23</v>
       </c>
@@ -3082,20 +3082,20 @@
       <c r="J76" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K76" s="13" t="s">
-        <v>18</v>
+      <c r="K76" s="13">
+        <v>3449704</v>
       </c>
       <c r="L76" s="13">
-        <v>3449704</v>
+        <v>3450953</v>
       </c>
       <c r="M76" s="13">
-        <v>3450953</v>
-      </c>
-      <c r="N76" s="13">
         <v>8000000</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>25</v>
       </c>
@@ -3160,20 +3160,20 @@
       <c r="J78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="13" t="s">
-        <v>18</v>
+      <c r="K78" s="13">
+        <v>6467193</v>
       </c>
       <c r="L78" s="13">
-        <v>6467193</v>
+        <v>6739323</v>
       </c>
       <c r="M78" s="13">
-        <v>6739323</v>
+        <v>5884039</v>
       </c>
       <c r="N78" s="13">
-        <v>5884039</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6294665</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>26</v>
       </c>
@@ -3199,12 +3199,12 @@
       <c r="J79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" s="11">
+      <c r="K79" s="11">
         <v>3391304</v>
       </c>
+      <c r="L79" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M79" s="11" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -3238,20 +3238,20 @@
       <c r="J80" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K80" s="13" t="s">
-        <v>18</v>
+      <c r="K80" s="13">
+        <v>5296208</v>
       </c>
       <c r="L80" s="13">
-        <v>5296208</v>
+        <v>5844029</v>
       </c>
       <c r="M80" s="13">
-        <v>5844029</v>
+        <v>5492384</v>
       </c>
       <c r="N80" s="13">
-        <v>5492384</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5583814</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
@@ -3277,20 +3277,20 @@
       <c r="J81" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>18</v>
+      <c r="K81" s="11">
+        <v>5855843</v>
       </c>
       <c r="L81" s="11">
-        <v>5855843</v>
+        <v>6601416</v>
       </c>
       <c r="M81" s="11">
-        <v>6601416</v>
+        <v>5972927</v>
       </c>
       <c r="N81" s="11">
-        <v>5972927</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6562500</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>45</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -3316,37 +3316,37 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>1874880</v>
+        <v>2452352</v>
       </c>
       <c r="F83" s="11">
-        <v>2452352</v>
+        <v>2791143</v>
       </c>
       <c r="G83" s="11">
-        <v>2791143</v>
-      </c>
-      <c r="H83" s="11">
         <v>3997540</v>
       </c>
-      <c r="I83" s="11" t="s">
-        <v>18</v>
+      <c r="H83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="11">
+        <v>6131313</v>
       </c>
       <c r="J83" s="11">
-        <v>6131313</v>
-      </c>
-      <c r="K83" s="11">
         <v>4337365</v>
       </c>
+      <c r="K83" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L83" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N83" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="11">
+        <v>6072581</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>19</v>
       </c>
@@ -3355,26 +3355,26 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>3469153</v>
+        <v>4371509</v>
       </c>
       <c r="F84" s="13">
-        <v>4371509</v>
+        <v>4745114</v>
       </c>
       <c r="G84" s="13">
-        <v>4745114</v>
+        <v>5834800</v>
       </c>
       <c r="H84" s="13">
         <v>5834800</v>
       </c>
       <c r="I84" s="13">
-        <v>5834800</v>
+        <v>6608696</v>
       </c>
       <c r="J84" s="13">
-        <v>6608696</v>
-      </c>
-      <c r="K84" s="13">
         <v>7161515</v>
       </c>
+      <c r="K84" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L84" s="13" t="s">
         <v>18</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>21</v>
       </c>
@@ -3411,20 +3411,20 @@
       <c r="J85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K85" s="11" t="s">
-        <v>18</v>
+      <c r="K85" s="11">
+        <v>9410918</v>
       </c>
       <c r="L85" s="11">
-        <v>9410918</v>
+        <v>9686912</v>
       </c>
       <c r="M85" s="11">
-        <v>9686912</v>
+        <v>8113679</v>
       </c>
       <c r="N85" s="11">
-        <v>8113679</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9741133</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>22</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>27</v>
       </c>
@@ -3489,20 +3489,20 @@
       <c r="J87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K87" s="11" t="s">
-        <v>18</v>
+      <c r="K87" s="11">
+        <v>9123839</v>
       </c>
       <c r="L87" s="11">
-        <v>9123839</v>
+        <v>8964467</v>
       </c>
       <c r="M87" s="11">
-        <v>8964467</v>
+        <v>7268763</v>
       </c>
       <c r="N87" s="11">
-        <v>7268763</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7351852</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3517,7 +3517,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3532,7 +3532,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3547,7 +3547,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>46</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>47</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>16</v>
       </c>
@@ -3642,20 +3642,20 @@
       <c r="J94" s="11">
         <v>0</v>
       </c>
-      <c r="K94" s="11">
-        <v>0</v>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M94" s="11" t="s">
-        <v>18</v>
+      <c r="M94" s="11">
+        <v>-1620</v>
       </c>
       <c r="N94" s="11">
-        <v>-1620</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5984</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>19</v>
       </c>
@@ -3664,26 +3664,26 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>-735934</v>
+        <v>-718707</v>
       </c>
       <c r="F95" s="13">
-        <v>-718707</v>
+        <v>-744863</v>
       </c>
       <c r="G95" s="13">
-        <v>-744863</v>
+        <v>-982539</v>
       </c>
       <c r="H95" s="13">
-        <v>-982539</v>
+        <v>-1178193</v>
       </c>
       <c r="I95" s="13">
-        <v>-1178193</v>
+        <v>-1343143</v>
       </c>
       <c r="J95" s="13">
-        <v>-1343143</v>
-      </c>
-      <c r="K95" s="13">
         <v>-1309183</v>
       </c>
+      <c r="K95" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L95" s="13" t="s">
         <v>18</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>20</v>
       </c>
@@ -3720,20 +3720,20 @@
       <c r="J96" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K96" s="11" t="s">
-        <v>18</v>
+      <c r="K96" s="11">
+        <v>-735902</v>
       </c>
       <c r="L96" s="11">
-        <v>-735902</v>
+        <v>-715340</v>
       </c>
       <c r="M96" s="11">
-        <v>-715340</v>
+        <v>-715932</v>
       </c>
       <c r="N96" s="11">
-        <v>-715932</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-807444</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>21</v>
       </c>
@@ -3762,17 +3762,17 @@
       <c r="K97" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="13" t="s">
-        <v>18</v>
+      <c r="L97" s="13">
+        <v>-48843</v>
       </c>
       <c r="M97" s="13">
-        <v>-48843</v>
+        <v>-211715</v>
       </c>
       <c r="N97" s="13">
-        <v>-211715</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-282675</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>22</v>
       </c>
@@ -3798,20 +3798,20 @@
       <c r="J98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K98" s="11" t="s">
-        <v>18</v>
+      <c r="K98" s="11">
+        <v>-495572</v>
       </c>
       <c r="L98" s="11">
-        <v>-495572</v>
+        <v>-450618</v>
       </c>
       <c r="M98" s="11">
-        <v>-450618</v>
+        <v>-363356</v>
       </c>
       <c r="N98" s="11">
-        <v>-363356</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-504443</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>23</v>
       </c>
@@ -3837,20 +3837,20 @@
       <c r="J99" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K99" s="13" t="s">
-        <v>18</v>
+      <c r="K99" s="13">
+        <v>-4416</v>
       </c>
       <c r="L99" s="13">
-        <v>-4416</v>
+        <v>-7202</v>
       </c>
       <c r="M99" s="13">
-        <v>-7202</v>
+        <v>-865</v>
       </c>
       <c r="N99" s="13">
-        <v>-865</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>24</v>
       </c>
@@ -3876,8 +3876,8 @@
       <c r="J100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K100" s="11" t="s">
-        <v>18</v>
+      <c r="K100" s="11">
+        <v>0</v>
       </c>
       <c r="L100" s="11">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>25</v>
       </c>
@@ -3915,20 +3915,20 @@
       <c r="J101" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K101" s="13" t="s">
-        <v>18</v>
+      <c r="K101" s="13">
+        <v>-179315</v>
       </c>
       <c r="L101" s="13">
-        <v>-179315</v>
+        <v>-198008</v>
       </c>
       <c r="M101" s="13">
-        <v>-198008</v>
+        <v>-275642</v>
       </c>
       <c r="N101" s="13">
-        <v>-275642</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-228788</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>26</v>
       </c>
@@ -3954,20 +3954,20 @@
       <c r="J102" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="11" t="s">
-        <v>18</v>
+      <c r="K102" s="11">
+        <v>-65</v>
       </c>
       <c r="L102" s="11">
-        <v>-65</v>
+        <v>-8</v>
       </c>
       <c r="M102" s="11">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="N102" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>27</v>
       </c>
@@ -3993,20 +3993,20 @@
       <c r="J103" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="13" t="s">
-        <v>18</v>
+      <c r="K103" s="13">
+        <v>-80555</v>
       </c>
       <c r="L103" s="13">
-        <v>-80555</v>
+        <v>-227291</v>
       </c>
       <c r="M103" s="13">
-        <v>-227291</v>
+        <v>-405844</v>
       </c>
       <c r="N103" s="13">
-        <v>-405844</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-217780</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>28</v>
       </c>
@@ -4032,57 +4032,57 @@
       <c r="J104" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="11" t="s">
-        <v>18</v>
+      <c r="K104" s="11">
+        <v>-113750</v>
       </c>
       <c r="L104" s="11">
-        <v>-113750</v>
+        <v>-101040</v>
       </c>
       <c r="M104" s="11">
-        <v>-101040</v>
+        <v>-28510</v>
       </c>
       <c r="N104" s="11">
-        <v>-28510</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-40010</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
-        <v>-735934</v>
+        <v>-718707</v>
       </c>
       <c r="F105" s="15">
-        <v>-718707</v>
+        <v>-744863</v>
       </c>
       <c r="G105" s="15">
-        <v>-744863</v>
+        <v>-982539</v>
       </c>
       <c r="H105" s="15">
-        <v>-982539</v>
+        <v>-1178193</v>
       </c>
       <c r="I105" s="15">
-        <v>-1178193</v>
+        <v>-1343143</v>
       </c>
       <c r="J105" s="15">
-        <v>-1343143</v>
+        <v>-1309183</v>
       </c>
       <c r="K105" s="15">
-        <v>-1309183</v>
+        <v>-1609575</v>
       </c>
       <c r="L105" s="15">
-        <v>-1609575</v>
+        <v>-1748350</v>
       </c>
       <c r="M105" s="15">
-        <v>-1748350</v>
+        <v>-2003485</v>
       </c>
       <c r="N105" s="15">
-        <v>-2003485</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2086748</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>49</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>16</v>
       </c>
@@ -4108,25 +4108,25 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>-19811</v>
+        <v>-9041</v>
       </c>
       <c r="F107" s="11">
-        <v>-9041</v>
+        <v>-15765</v>
       </c>
       <c r="G107" s="11">
-        <v>-15765</v>
+        <v>-6513</v>
       </c>
       <c r="H107" s="11">
-        <v>-6513</v>
+        <v>-1908</v>
       </c>
       <c r="I107" s="11">
-        <v>-1908</v>
+        <v>-18773</v>
       </c>
       <c r="J107" s="11">
-        <v>-18773</v>
+        <v>15712</v>
       </c>
       <c r="K107" s="11">
-        <v>15712</v>
+        <v>0</v>
       </c>
       <c r="L107" s="11">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="N107" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-521</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>19</v>
       </c>
@@ -4147,26 +4147,26 @@
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>-47667</v>
+        <v>-57091</v>
       </c>
       <c r="F108" s="13">
-        <v>-57091</v>
+        <v>18274</v>
       </c>
       <c r="G108" s="13">
-        <v>18274</v>
+        <v>-11364</v>
       </c>
       <c r="H108" s="13">
-        <v>-11364</v>
+        <v>-1918</v>
       </c>
       <c r="I108" s="13">
-        <v>-1918</v>
+        <v>-5621</v>
       </c>
       <c r="J108" s="13">
-        <v>-5621</v>
-      </c>
-      <c r="K108" s="13">
         <v>-8214</v>
       </c>
+      <c r="K108" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L108" s="13" t="s">
         <v>18</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>21</v>
       </c>
@@ -4203,20 +4203,20 @@
       <c r="J109" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K109" s="11" t="s">
-        <v>18</v>
+      <c r="K109" s="11">
+        <v>-10848</v>
       </c>
       <c r="L109" s="11">
-        <v>-10848</v>
+        <v>-15779</v>
       </c>
       <c r="M109" s="11">
-        <v>-15779</v>
+        <v>-48791</v>
       </c>
       <c r="N109" s="11">
-        <v>-48791</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3960</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>22</v>
       </c>
@@ -4242,8 +4242,8 @@
       <c r="J110" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K110" s="13" t="s">
-        <v>18</v>
+      <c r="K110" s="13">
+        <v>0</v>
       </c>
       <c r="L110" s="13">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>27</v>
       </c>
@@ -4281,57 +4281,57 @@
       <c r="J111" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="11" t="s">
-        <v>18</v>
+      <c r="K111" s="11">
+        <v>-938</v>
       </c>
       <c r="L111" s="11">
-        <v>-938</v>
+        <v>-560</v>
       </c>
       <c r="M111" s="11">
-        <v>-560</v>
+        <v>-6746</v>
       </c>
       <c r="N111" s="11">
-        <v>-6746</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2174</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
-        <v>-67478</v>
+        <v>-66132</v>
       </c>
       <c r="F112" s="15">
-        <v>-66132</v>
+        <v>2509</v>
       </c>
       <c r="G112" s="15">
-        <v>2509</v>
+        <v>-17877</v>
       </c>
       <c r="H112" s="15">
-        <v>-17877</v>
+        <v>-3826</v>
       </c>
       <c r="I112" s="15">
-        <v>-3826</v>
+        <v>-24394</v>
       </c>
       <c r="J112" s="15">
-        <v>-24394</v>
+        <v>7498</v>
       </c>
       <c r="K112" s="15">
-        <v>7498</v>
+        <v>-11786</v>
       </c>
       <c r="L112" s="15">
-        <v>-11786</v>
+        <v>-16339</v>
       </c>
       <c r="M112" s="15">
-        <v>-16339</v>
+        <v>-55537</v>
       </c>
       <c r="N112" s="15">
-        <v>-55537</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6655</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="16" t="s">
         <v>51</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="18" t="s">
         <v>52</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>34</v>
       </c>
@@ -4402,8 +4402,8 @@
       <c r="G115" s="15">
         <v>0</v>
       </c>
-      <c r="H115" s="15">
-        <v>0</v>
+      <c r="H115" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>18</v>
@@ -4424,7 +4424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="18" t="s">
         <v>35</v>
       </c>
@@ -4463,44 +4463,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>-803412</v>
+        <v>-784839</v>
       </c>
       <c r="F117" s="15">
-        <v>-784839</v>
+        <v>-742354</v>
       </c>
       <c r="G117" s="15">
-        <v>-742354</v>
+        <v>-1000416</v>
       </c>
       <c r="H117" s="15">
-        <v>-1000416</v>
+        <v>-1182019</v>
       </c>
       <c r="I117" s="15">
-        <v>-1182019</v>
+        <v>-1367537</v>
       </c>
       <c r="J117" s="15">
-        <v>-1367537</v>
+        <v>-1301685</v>
       </c>
       <c r="K117" s="15">
-        <v>-1301685</v>
+        <v>-1621361</v>
       </c>
       <c r="L117" s="15">
-        <v>-1621361</v>
+        <v>-1764689</v>
       </c>
       <c r="M117" s="15">
-        <v>-1764689</v>
+        <v>-2059022</v>
       </c>
       <c r="N117" s="15">
-        <v>-2059022</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2093403</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4515,7 +4515,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4530,7 +4530,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4545,7 +4545,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>53</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4597,7 +4597,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>54</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>16</v>
       </c>
@@ -4640,20 +4640,20 @@
       <c r="J124" s="11">
         <v>0</v>
       </c>
-      <c r="K124" s="11">
-        <v>0</v>
+      <c r="K124" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L124" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M124" s="11" t="s">
-        <v>18</v>
+      <c r="M124" s="11">
+        <v>0</v>
       </c>
       <c r="N124" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5984</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>19</v>
       </c>
@@ -4662,26 +4662,26 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>513291</v>
+        <v>314799</v>
       </c>
       <c r="F125" s="13">
-        <v>314799</v>
+        <v>181590</v>
       </c>
       <c r="G125" s="13">
-        <v>181590</v>
+        <v>637917</v>
       </c>
       <c r="H125" s="13">
-        <v>637917</v>
+        <v>1304240</v>
       </c>
       <c r="I125" s="13">
-        <v>1304240</v>
+        <v>985789</v>
       </c>
       <c r="J125" s="13">
-        <v>985789</v>
-      </c>
-      <c r="K125" s="13">
         <v>326033</v>
       </c>
+      <c r="K125" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L125" s="13" t="s">
         <v>18</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>20</v>
       </c>
@@ -4718,20 +4718,20 @@
       <c r="J126" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K126" s="11" t="s">
-        <v>18</v>
+      <c r="K126" s="11">
+        <v>697659</v>
       </c>
       <c r="L126" s="11">
-        <v>697659</v>
+        <v>641471</v>
       </c>
       <c r="M126" s="11">
-        <v>641471</v>
+        <v>459637</v>
       </c>
       <c r="N126" s="11">
-        <v>459637</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14660</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>21</v>
       </c>
@@ -4760,17 +4760,17 @@
       <c r="K127" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L127" s="13" t="s">
-        <v>18</v>
+      <c r="L127" s="13">
+        <v>34031</v>
       </c>
       <c r="M127" s="13">
-        <v>34031</v>
+        <v>112305</v>
       </c>
       <c r="N127" s="13">
-        <v>112305</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>194842</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>22</v>
       </c>
@@ -4796,20 +4796,20 @@
       <c r="J128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K128" s="11" t="s">
-        <v>18</v>
+      <c r="K128" s="11">
+        <v>469884</v>
       </c>
       <c r="L128" s="11">
-        <v>469884</v>
+        <v>472495</v>
       </c>
       <c r="M128" s="11">
-        <v>472495</v>
+        <v>290836</v>
       </c>
       <c r="N128" s="11">
-        <v>290836</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-23694</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>23</v>
       </c>
@@ -4835,20 +4835,20 @@
       <c r="J129" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K129" s="13" t="s">
-        <v>18</v>
+      <c r="K129" s="13">
+        <v>831</v>
       </c>
       <c r="L129" s="13">
-        <v>831</v>
+        <v>221</v>
       </c>
       <c r="M129" s="13">
-        <v>221</v>
+        <v>-65</v>
       </c>
       <c r="N129" s="13">
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>24</v>
       </c>
@@ -4874,8 +4874,8 @@
       <c r="J130" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K130" s="11" t="s">
-        <v>18</v>
+      <c r="K130" s="11">
+        <v>0</v>
       </c>
       <c r="L130" s="11">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>25</v>
       </c>
@@ -4913,20 +4913,20 @@
       <c r="J131" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K131" s="13" t="s">
-        <v>18</v>
+      <c r="K131" s="13">
+        <v>139938</v>
       </c>
       <c r="L131" s="13">
-        <v>139938</v>
+        <v>127535</v>
       </c>
       <c r="M131" s="13">
-        <v>127535</v>
+        <v>102331</v>
       </c>
       <c r="N131" s="13">
-        <v>102331</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-38003</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>26</v>
       </c>
@@ -4952,20 +4952,20 @@
       <c r="J132" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K132" s="11" t="s">
-        <v>18</v>
+      <c r="K132" s="11">
+        <v>13</v>
       </c>
       <c r="L132" s="11">
+        <v>-8</v>
+      </c>
+      <c r="M132" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N132" s="11">
         <v>13</v>
       </c>
-      <c r="M132" s="11">
-        <v>-8</v>
-      </c>
-      <c r="N132" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>27</v>
       </c>
@@ -4991,20 +4991,20 @@
       <c r="J133" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K133" s="13" t="s">
-        <v>18</v>
+      <c r="K133" s="13">
+        <v>66383</v>
       </c>
       <c r="L133" s="13">
-        <v>66383</v>
+        <v>179208</v>
       </c>
       <c r="M133" s="13">
-        <v>179208</v>
+        <v>244251</v>
       </c>
       <c r="N133" s="13">
-        <v>244251</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>213726</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>28</v>
       </c>
@@ -5030,57 +5030,57 @@
       <c r="J134" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K134" s="11" t="s">
-        <v>18</v>
+      <c r="K134" s="11">
+        <v>69614</v>
       </c>
       <c r="L134" s="11">
-        <v>69614</v>
+        <v>59282</v>
       </c>
       <c r="M134" s="11">
-        <v>59282</v>
+        <v>-270</v>
       </c>
       <c r="N134" s="11">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-29930</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>513291</v>
+        <v>314799</v>
       </c>
       <c r="F135" s="15">
-        <v>314799</v>
+        <v>181590</v>
       </c>
       <c r="G135" s="15">
-        <v>181590</v>
+        <v>637917</v>
       </c>
       <c r="H135" s="15">
-        <v>637917</v>
+        <v>1304240</v>
       </c>
       <c r="I135" s="15">
-        <v>1304240</v>
+        <v>985789</v>
       </c>
       <c r="J135" s="15">
-        <v>985789</v>
+        <v>326033</v>
       </c>
       <c r="K135" s="15">
-        <v>326033</v>
+        <v>1444322</v>
       </c>
       <c r="L135" s="15">
-        <v>1444322</v>
+        <v>1514235</v>
       </c>
       <c r="M135" s="15">
-        <v>1514235</v>
+        <v>1209024</v>
       </c>
       <c r="N135" s="15">
-        <v>1209024</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>325993</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>56</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>16</v>
       </c>
@@ -5106,25 +5106,25 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>21187</v>
+        <v>12807</v>
       </c>
       <c r="F137" s="11">
-        <v>12807</v>
+        <v>13101</v>
       </c>
       <c r="G137" s="11">
-        <v>13101</v>
+        <v>14610</v>
       </c>
       <c r="H137" s="11">
-        <v>14610</v>
+        <v>-1907</v>
       </c>
       <c r="I137" s="11">
-        <v>-1907</v>
+        <v>-12703</v>
       </c>
       <c r="J137" s="11">
-        <v>-12703</v>
+        <v>15774</v>
       </c>
       <c r="K137" s="11">
-        <v>15774</v>
+        <v>0</v>
       </c>
       <c r="L137" s="11">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>0</v>
       </c>
       <c r="N137" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>19</v>
       </c>
@@ -5145,26 +5145,26 @@
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13">
-        <v>72612</v>
+        <v>-23119</v>
       </c>
       <c r="F138" s="13">
-        <v>-23119</v>
+        <v>76786</v>
       </c>
       <c r="G138" s="13">
-        <v>76786</v>
+        <v>20459</v>
       </c>
       <c r="H138" s="13">
-        <v>20459</v>
+        <v>-1918</v>
       </c>
       <c r="I138" s="13">
-        <v>-1918</v>
+        <v>12716</v>
       </c>
       <c r="J138" s="13">
-        <v>12716</v>
-      </c>
-      <c r="K138" s="13">
         <v>13456</v>
       </c>
+      <c r="K138" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L138" s="13" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>21</v>
       </c>
@@ -5201,20 +5201,20 @@
       <c r="J139" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K139" s="11" t="s">
-        <v>18</v>
+      <c r="K139" s="11">
+        <v>17253</v>
       </c>
       <c r="L139" s="11">
-        <v>17253</v>
+        <v>27444</v>
       </c>
       <c r="M139" s="11">
-        <v>27444</v>
+        <v>42496</v>
       </c>
       <c r="N139" s="11">
-        <v>42496</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11694</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>22</v>
       </c>
@@ -5240,8 +5240,8 @@
       <c r="J140" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K140" s="13" t="s">
-        <v>18</v>
+      <c r="K140" s="13">
+        <v>0</v>
       </c>
       <c r="L140" s="13">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>27</v>
       </c>
@@ -5279,57 +5279,57 @@
       <c r="J141" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K141" s="11" t="s">
-        <v>18</v>
+      <c r="K141" s="11">
+        <v>2009</v>
       </c>
       <c r="L141" s="11">
-        <v>2009</v>
+        <v>1206</v>
       </c>
       <c r="M141" s="11">
-        <v>1206</v>
+        <v>7588</v>
       </c>
       <c r="N141" s="11">
-        <v>7588</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15">
-        <v>93799</v>
+        <v>-10312</v>
       </c>
       <c r="F142" s="15">
-        <v>-10312</v>
+        <v>89887</v>
       </c>
       <c r="G142" s="15">
-        <v>89887</v>
+        <v>35069</v>
       </c>
       <c r="H142" s="15">
-        <v>35069</v>
+        <v>-3825</v>
       </c>
       <c r="I142" s="15">
-        <v>-3825</v>
+        <v>13</v>
       </c>
       <c r="J142" s="15">
-        <v>13</v>
+        <v>29230</v>
       </c>
       <c r="K142" s="15">
-        <v>29230</v>
+        <v>19262</v>
       </c>
       <c r="L142" s="15">
-        <v>19262</v>
+        <v>28650</v>
       </c>
       <c r="M142" s="15">
-        <v>28650</v>
+        <v>50084</v>
       </c>
       <c r="N142" s="15">
-        <v>50084</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16063</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="16" t="s">
         <v>58</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="18" t="s">
         <v>59</v>
       </c>
@@ -5383,41 +5383,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15">
-        <v>607090</v>
+        <v>304487</v>
       </c>
       <c r="F145" s="15">
-        <v>304487</v>
+        <v>271477</v>
       </c>
       <c r="G145" s="15">
-        <v>271477</v>
+        <v>672986</v>
       </c>
       <c r="H145" s="15">
-        <v>672986</v>
+        <v>1300415</v>
       </c>
       <c r="I145" s="15">
-        <v>1300415</v>
+        <v>985802</v>
       </c>
       <c r="J145" s="15">
-        <v>985802</v>
+        <v>355263</v>
       </c>
       <c r="K145" s="15">
-        <v>355263</v>
+        <v>1463584</v>
       </c>
       <c r="L145" s="15">
-        <v>1463584</v>
+        <v>1542885</v>
       </c>
       <c r="M145" s="15">
-        <v>1542885</v>
+        <v>1259108</v>
       </c>
       <c r="N145" s="15">
-        <v>1259108</v>
+        <v>342056</v>
       </c>
     </row>
   </sheetData>
